--- a/日常课程表.xlsx
+++ b/日常课程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11920"/>
+    <workbookView windowWidth="24860" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>人生的境界即是心灵的境界。心乱则失本相，领略不到人生之美。心需静，心要静。</t>
   </si>
@@ -46,8 +46,7 @@
     <t>星期日</t>
   </si>
   <si>
-    <t>古典文学，英语，围棋，编程，
-健身知识，练字</t>
+    <t>古典文学，英语，围棋，编程，健身知识，练字</t>
   </si>
   <si>
     <t>上午</t>
@@ -59,10 +58,16 @@
     <t>06:30-08:00</t>
   </si>
   <si>
-    <t>背诵</t>
+    <t>背诵古诗文</t>
   </si>
   <si>
     <t>锻炼</t>
+  </si>
+  <si>
+    <t>背诵围棋</t>
+  </si>
+  <si>
+    <t>背诵英语</t>
   </si>
   <si>
     <t>休息日</t>
@@ -162,9 +167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -225,6 +230,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -242,21 +255,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,10 +269,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,13 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,39 +302,51 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,13 +393,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,13 +465,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,145 +549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,6 +772,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -807,181 +836,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,13 +1089,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1103,9 +1102,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1455,7 +1451,7 @@
     <col min="12" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1467,10 +1463,9 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="36"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="1:13">
       <c r="A2" s="6"/>
@@ -1498,10 +1493,10 @@
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="40"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="7" t="s">
@@ -1518,10 +1513,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
       <c r="A4" s="7"/>
@@ -1535,25 +1530,25 @@
         <v>15</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="40"/>
-      <c r="M4" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
       <c r="A5" s="7"/>
@@ -1565,18 +1560,18 @@
       <c r="G5" s="14"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:13">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1584,17 +1579,17 @@
       <c r="G6" s="32"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
-      <c r="J6" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="J6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:13">
       <c r="A7" s="7"/>
       <c r="B7" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
@@ -1603,38 +1598,38 @@
       <c r="G7" s="33"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:13">
       <c r="A8" s="7"/>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
-      <c r="J8" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="J8" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:13">
       <c r="A9" s="7"/>
@@ -1646,19 +1641,19 @@
       <c r="G9" s="14"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1666,10 +1661,10 @@
       <c r="G10" s="21"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="40"/>
+      <c r="J10" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:13">
       <c r="A11" s="7"/>
@@ -1681,88 +1676,88 @@
       <c r="G11" s="23"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="41"/>
-      <c r="M11" s="40"/>
+      <c r="J11" s="37"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="40"/>
+      <c r="J12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
       <c r="A13" s="7"/>
       <c r="B13" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="34"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
       <c r="A14" s="7"/>
       <c r="B14" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="J14" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
       <c r="A15" s="7"/>
       <c r="B15" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1771,64 +1766,64 @@
       <c r="G15" s="14"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:13">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:13">
       <c r="A18" s="7"/>
@@ -1840,48 +1835,48 @@
       <c r="G18" s="14"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:13">
       <c r="A19" s="7"/>
       <c r="B19" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="35"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:13">
       <c r="A20" s="7"/>
       <c r="B20" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="50">

--- a/日常课程表.xlsx
+++ b/日常课程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="13360"/>
+    <workbookView windowWidth="24860" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
-  <si>
-    <t>人生的境界即是心灵的境界。心乱则失本相，领略不到人生之美。心需静，心要静。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+  <si>
+    <t>人生的境界即是心灵的境界。</t>
   </si>
   <si>
     <t>具体安排</t>
@@ -46,7 +46,7 @@
     <t>星期日</t>
   </si>
   <si>
-    <t>古典文学，英语，围棋，编程，健身知识，练字</t>
+    <t>等级划分</t>
   </si>
   <si>
     <t>上午</t>
@@ -73,7 +73,10 @@
     <t>休息日</t>
   </si>
   <si>
-    <t>千字文，三字经，道德经</t>
+    <t>编程</t>
+  </si>
+  <si>
+    <t>主</t>
   </si>
   <si>
     <t>08:00-08:30</t>
@@ -82,49 +85,52 @@
     <t>路上，复习所学，学习掘金，围棋</t>
   </si>
   <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>08:30-10:00</t>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+  </si>
+  <si>
+    <t>文学</t>
+  </si>
+  <si>
+    <t>中午</t>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+  </si>
+  <si>
+    <t>午饭，练字，午休</t>
+  </si>
+  <si>
     <t>围棋</t>
   </si>
   <si>
-    <t>08:30-10:00</t>
-  </si>
-  <si>
-    <t>10:00-12:00</t>
-  </si>
-  <si>
-    <t>编程</t>
-  </si>
-  <si>
-    <t>编程基础知识</t>
-  </si>
-  <si>
-    <t>中午</t>
-  </si>
-  <si>
-    <t>12:00-14:00</t>
-  </si>
-  <si>
-    <t>午饭，练字，午休</t>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>14:00-15:00</t>
+  </si>
+  <si>
+    <t>古诗文</t>
+  </si>
+  <si>
+    <t>健身</t>
+  </si>
+  <si>
+    <t>15:00-16:00</t>
+  </si>
+  <si>
+    <t>16:00-17:00</t>
   </si>
   <si>
     <t>练字</t>
-  </si>
-  <si>
-    <t>下午</t>
-  </si>
-  <si>
-    <t>14:00-15:00</t>
-  </si>
-  <si>
-    <t>古诗文</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>15:00-16:00</t>
-  </si>
-  <si>
-    <t>16:00-17:00</t>
   </si>
   <si>
     <t>17:00-18:00</t>
@@ -166,12 +172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,10 +222,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,10 +275,71 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,11 +351,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,89 +395,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -393,181 +429,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,20 +775,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,30 +805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -811,17 +820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -836,157 +834,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,9 +1033,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,28 +1125,37 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1437,449 +1479,457 @@
   <sheetPr/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="28.8"/>
   <cols>
     <col min="1" max="1" width="10.6428571428571" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.1071428571429" style="3" customWidth="1"/>
     <col min="3" max="9" width="15.6428571428571" style="3" customWidth="1"/>
-    <col min="10" max="10" width="37.6428571428571" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24.8035714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.0892857142857" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="1:13">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="38"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.270833333333333</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="K4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:13">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="37" t="s">
+      <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:13">
-      <c r="A7" s="7"/>
-      <c r="B7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:13">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:13">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="39"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:13">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="37" t="s">
+      <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="38"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:13">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="38"/>
+      <c r="G12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="7"/>
-      <c r="B14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="7"/>
-      <c r="B15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:13">
-      <c r="A16" s="7"/>
-      <c r="B16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:13">
-      <c r="A17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:13">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:13">
-      <c r="A19" s="7"/>
-      <c r="B19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:13">
-      <c r="A20" s="7"/>
-      <c r="B20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="54">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C19:G19"/>
@@ -1928,6 +1978,10 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C6:G7"/>
   </mergeCells>

--- a/日常课程表.xlsx
+++ b/日常课程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11500"/>
+    <workbookView windowWidth="24860" windowHeight="12560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
-    <t>人生的境界即是心灵的境界。</t>
+    <t>无论以前还是现在享过的福，偷过的懒，早晚都会让你连本带利的还回来。
+你还在偷懒吗？</t>
   </si>
   <si>
     <t>具体安排</t>
@@ -172,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -259,6 +260,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -267,10 +275,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,37 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -321,11 +355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,22 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,33 +391,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -435,85 +436,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,85 +586,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,6 +772,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,36 +851,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -838,187 +868,158 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1037,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1480,7 +1481,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="28.8"/>
@@ -1493,7 +1494,7 @@
     <col min="12" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="68" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
